--- a/data/trans_orig/Q70-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>1.742285257548854</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.972124295535208</v>
+        <v>8.972124295535204</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1.121259199618402</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5043562504429756</v>
+        <v>0.5085938536036713</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4830723151432545</v>
+        <v>0.4652321945325524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5809486144802293</v>
+        <v>0.5916490613987097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.9122711780583</v>
+        <v>2.886680291709289</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6142562357901881</v>
+        <v>0.66093443894642</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.698731350859043</v>
+        <v>0.6710108967650852</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8057008824902183</v>
+        <v>0.868419378794323</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.292572581881529</v>
+        <v>6.251722608337579</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6840775384506668</v>
+        <v>0.6914487621656362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6972312528916731</v>
+        <v>0.724526366380449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8335415892952487</v>
+        <v>0.8385045695798418</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.838116306837257</v>
+        <v>4.920244307207632</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.353438880898994</v>
+        <v>1.307764903946469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.970302760214217</v>
+        <v>8.038372716768787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.800494229685004</v>
+        <v>2.658443176013142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.520930282439781</v>
+        <v>7.354185248795645</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.07643972391764</v>
+        <v>5.370624187272715</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.851514376994235</v>
+        <v>1.853711855469999</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.610426444802131</v>
+        <v>5.152810058545025</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.41252409629482</v>
+        <v>13.10253646598746</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.491100414195692</v>
+        <v>2.352434297488699</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4.61093989058462</v>
+        <v>4.808911578696319</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.773819094345051</v>
+        <v>2.622384258026411</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.959986743421823</v>
+        <v>8.770147675102033</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>2.747022916306134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.253194180205374</v>
+        <v>6.253194180205376</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1.253734376894074</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5470017992632684</v>
+        <v>0.5785869892831798</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5874701368668481</v>
+        <v>0.6031417305044072</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9865880559903768</v>
+        <v>0.897618122030545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.962938332825294</v>
+        <v>4.012705503152162</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7486250105690863</v>
+        <v>0.8001503548172499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8739132873544504</v>
+        <v>0.8316641031865988</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.147234389576777</v>
+        <v>1.20831998208565</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.986840805048549</v>
+        <v>3.905431343267909</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8647549775682015</v>
+        <v>0.8891270422800946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9544401858909074</v>
+        <v>0.9772879122504302</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.439538548405022</v>
+        <v>1.364595474566826</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>4.443526767397204</v>
+        <v>4.421483165903475</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.959390957311487</v>
+        <v>6.477993377182805</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.787873153957684</v>
+        <v>5.058374060659744</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.532648098392341</v>
+        <v>7.672443549559437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.05511525593908</v>
+        <v>10.70084181713703</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.127326681245572</v>
+        <v>2.196060821223541</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.584352758631798</v>
+        <v>12.36627064092482</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>5.943618844539814</v>
+        <v>5.678434859800856</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>9.119580965501907</v>
+        <v>9.429875795337191</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.656487565928112</v>
+        <v>3.776483788090218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.888745483451905</v>
+        <v>4.733839612523205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5.833355196505989</v>
+        <v>5.493380311339391</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>8.878820138165102</v>
+        <v>8.582073980994354</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>4.075541004037072</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>6.67860466501488</v>
+        <v>6.678604665014879</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.079001073128217</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.76911399521674</v>
+        <v>0.7655390020839754</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5784672335946579</v>
+        <v>0.59282037842482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7109587775837273</v>
+        <v>0.7771720780517195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.256240433105344</v>
+        <v>3.085784853993707</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3952098611929306</v>
+        <v>0.3766265531280178</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1908482507804351</v>
+        <v>0.2030536646146963</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6595006353392477</v>
+        <v>0.7242047699705257</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.474601246938539</v>
+        <v>2.601866237328284</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7749527708058843</v>
+        <v>0.7405846592610864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5495822660021247</v>
+        <v>0.5878207727471013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.074401692782076</v>
+        <v>1.07767749571341</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.829010871024787</v>
+        <v>3.850851902137002</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.840747447745216</v>
+        <v>1.850716038095327</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.493773329365815</v>
+        <v>4.074320778796026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.364472040601195</v>
+        <v>3.44586965412541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.25729621032109</v>
+        <v>15.3618936746393</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.928733888378836</v>
+        <v>1.889320344103397</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.262252931106348</v>
+        <v>1.429832305301672</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.47701435740082</v>
+        <v>16.03763768041237</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.07274029796953</v>
+        <v>19.16327243597319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.785109297374773</v>
+        <v>1.739385809837885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.712788523286951</v>
+        <v>4.071182738634551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4.806848314315902</v>
+        <v>4.81332029746211</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>13.3675498044155</v>
+        <v>12.17557899063849</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9396043223273125</v>
+        <v>0.9963656262864065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9082409051077435</v>
+        <v>0.9155630440455071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.634138908315423</v>
+        <v>1.637085183329233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.974409562278981</v>
+        <v>4.818589770381553</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.182705525250994</v>
+        <v>1.183819745266545</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5488781388021932</v>
+        <v>0.5263492866835282</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8792577429879069</v>
+        <v>0.8202167572126251</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.611532085664455</v>
+        <v>6.724830900669795</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.259028381592322</v>
+        <v>1.210609852714662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.011457088610595</v>
+        <v>1.045292406803998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.574031291644688</v>
+        <v>1.544027715783454</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.280348708139843</v>
+        <v>6.323947224580257</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.913347021503423</v>
+        <v>2.913996110233808</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.095073451739641</v>
+        <v>4.126746273625439</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.653109517836015</v>
+        <v>6.535018635204516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.20437740358393</v>
+        <v>12.44605437615983</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.863454087768357</v>
+        <v>7.817140834312928</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.105427400634256</v>
+        <v>7.75824214562797</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5.870888380903922</v>
+        <v>6.037443101448495</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.05087890613651</v>
+        <v>12.68651506853891</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.484625265767719</v>
+        <v>3.798702788333892</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4.045248809300189</v>
+        <v>3.871418528411254</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4.835355064710724</v>
+        <v>4.549082981435343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11.1417820391194</v>
+        <v>11.29693474873014</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>1.118140933747174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.882545759112513</v>
+        <v>6.882545759112514</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2.133006995735594</v>
@@ -1237,7 +1237,7 @@
         <v>1.268621809455516</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>8.522076039825018</v>
+        <v>8.522076039825016</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7304405888669206</v>
+        <v>0.6711776900533857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7804103660736454</v>
+        <v>0.8202994153042463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4941468684460928</v>
+        <v>0.598696171104326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.109779607541781</v>
+        <v>4.545489011935472</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9763388516576269</v>
+        <v>0.819654276898505</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.002090457124036</v>
+        <v>1.140009692182272</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5195929201484228</v>
+        <v>0.5947551316559148</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.168936661229456</v>
+        <v>7.082475191543526</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.021389004887156</v>
+        <v>1.077022424478703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.197533586853279</v>
+        <v>1.14401741721828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6842140877442544</v>
+        <v>0.7424274097999707</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.412744078172778</v>
+        <v>6.449424196257077</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.957963627673041</v>
+        <v>4.11180709908448</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.66791261122586</v>
+        <v>2.604029315186842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.347147397939759</v>
+        <v>2.73775874665125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.51402205361702</v>
+        <v>11.60615209268324</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.10389379166921</v>
+        <v>4.969113253982154</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.423041024587099</v>
+        <v>7.449603261751951</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.656829576866276</v>
+        <v>3.796460874966599</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.21012440797695</v>
+        <v>15.06076891321479</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.495400743176511</v>
+        <v>3.77873314360134</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4.976585857512207</v>
+        <v>4.793985323764042</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.443760894125717</v>
+        <v>2.485825380664803</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>11.78953140366752</v>
+        <v>11.82621919979266</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>2.11943562811928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.441336510085441</v>
+        <v>6.441336510085443</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1.900863427236641</v>
@@ -1361,7 +1361,7 @@
         <v>2.066321213905934</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>8.550964065874915</v>
+        <v>8.550964065874917</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.586818138397236</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.026600159454816</v>
+        <v>1.029091412402564</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.089757011220464</v>
+        <v>1.130270591229313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.460774079017817</v>
+        <v>1.461643016162406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.028695991447409</v>
+        <v>5.004618293747591</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.264242437486997</v>
+        <v>1.253148006605261</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.169724512886586</v>
+        <v>1.193183372664935</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.338571327052884</v>
+        <v>1.334068415904613</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>7.187179725193941</v>
+        <v>7.095753679091108</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.25936699139485</v>
+        <v>1.204137027756503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.301034916828829</v>
+        <v>1.287654217428287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.525550130893957</v>
+        <v>1.562837228565527</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6.265160471785977</v>
+        <v>6.354291769817527</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.977469620794669</v>
+        <v>1.997426405123426</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.838412754659926</v>
+        <v>2.715960669430085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.199624041775551</v>
+        <v>3.329863354473749</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.412005096373724</v>
+        <v>8.357915003853508</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.578348190448347</v>
+        <v>3.602105073217145</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.903194031539166</v>
+        <v>3.859570756546236</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.411463626680119</v>
+        <v>3.40151458499022</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>10.40956885256799</v>
+        <v>10.43959472778977</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.257798873032316</v>
+        <v>2.180016379922909</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.67053292084722</v>
+        <v>2.766123760773307</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.906088705505212</v>
+        <v>2.912602472790913</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>8.703564628263491</v>
+        <v>8.576190843657567</v>
       </c>
     </row>
     <row r="22">
